--- a/1-data/1-research/cities.latest.xlsx
+++ b/1-data/1-research/cities.latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2888,16 +2888,16 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Reykjavik</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2405</v>
+        <v>1510</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -2906,16 +2906,16 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>12964</v>
+        <v>2405</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -2924,16 +2924,16 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>11478</v>
+        <v>12964</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -2942,16 +2942,16 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>12389</v>
+        <v>11478</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -2960,16 +2960,16 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4337</v>
+        <v>12389</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kaunas</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3294</v>
+        <v>4337</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -2996,34 +2996,34 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Kaunas</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2253</v>
+        <v>3294</v>
       </c>
       <c r="D143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3269</v>
+        <v>2253</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3032,16 +3032,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>154</v>
+        <v>3269</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -3050,34 +3050,34 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Timbuktu</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1717</v>
+        <v>154</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Timbuktu</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9602</v>
+        <v>1717</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -3086,43 +3086,43 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>11139</v>
+        <v>9602</v>
       </c>
       <c r="D148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Abuna</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2714</v>
+        <v>11139</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Awka</t>
+          <t>Abuna</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2522</v>
+        <v>2714</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -3140,7 +3140,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Awka</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2681</v>
+        <v>2522</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -3158,16 +3158,16 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2194</v>
+        <v>2681</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -3176,7 +3176,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2167</v>
+        <v>2194</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2226</v>
+        <v>2167</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -3212,7 +3212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -3230,7 +3230,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3239,16 +3239,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2269</v>
+        <v>2205</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3257,16 +3257,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2138</v>
+        <v>2269</v>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3275,16 +3275,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2220</v>
+        <v>2138</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Rotterdam [The Hague]</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2123</v>
+        <v>2219</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -3320,7 +3320,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Rotterdam [The Hague]</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3329,16 +3329,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2183</v>
+        <v>2123</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="D162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3374,16 +3374,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2493</v>
+        <v>2181</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -3392,7 +3392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3401,34 +3401,34 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2429</v>
+        <v>2493</v>
       </c>
       <c r="D165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>13129</v>
+        <v>2429</v>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>13121</v>
+        <v>13129</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -3446,25 +3446,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>723</v>
+        <v>13121</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>528</v>
+        <v>723</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -3482,16 +3482,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3060</v>
+        <v>528</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3134</v>
+        <v>3060</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Krakow</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3205</v>
+        <v>3134</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lodz</t>
+          <t>Krakow</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3153</v>
+        <v>3205</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -3554,7 +3554,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Lodz</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3012</v>
+        <v>3153</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Szczecin</t>
+          <t>Poznan</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2907</v>
+        <v>3012</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -3590,7 +3590,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Szczecin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3599,16 +3599,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3216</v>
+        <v>2907</v>
       </c>
       <c r="D176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3617,61 +3617,61 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3031</v>
+        <v>3216</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1551</v>
+        <v>3031</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4351</v>
+        <v>1551</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3675</v>
+        <v>4351</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -3680,7 +3680,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3396</v>
+        <v>3675</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -3698,16 +3698,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11498</v>
+        <v>3396</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -3716,16 +3716,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2965</v>
+        <v>11498</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -3734,25 +3734,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2682</v>
+        <v>2965</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Malmö</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2798</v>
+        <v>2682</v>
       </c>
       <c r="D185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Malmö</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3779,43 +3779,43 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2973</v>
+        <v>2798</v>
       </c>
       <c r="D186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>10715</v>
+        <v>2973</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3562</v>
+        <v>10715</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -3824,16 +3824,16 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3517</v>
+        <v>3562</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -3842,16 +3842,16 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1138</v>
+        <v>3517</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -3860,16 +3860,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>196</v>
+        <v>1138</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -3896,7 +3896,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>644</v>
+        <v>273</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1022</v>
+        <v>644</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -3950,7 +3950,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3959,16 +3959,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>634</v>
+        <v>277</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>323</v>
+        <v>634</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -3986,7 +3986,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3995,16 +3995,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="D198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -4022,7 +4022,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -4040,7 +4040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fort Collins</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Fort Collins</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4067,16 +4067,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>502</v>
+        <v>315</v>
       </c>
       <c r="D203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4103,16 +4103,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>637</v>
+        <v>14</v>
       </c>
       <c r="D205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>443</v>
+        <v>637</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -4148,7 +4148,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>556</v>
+        <v>443</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -4166,7 +4166,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -4184,7 +4184,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>945</v>
+        <v>400</v>
       </c>
       <c r="D209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>568</v>
+        <v>945</v>
       </c>
       <c r="D210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>898</v>
+        <v>568</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>79</v>
+        <v>898</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -4256,7 +4256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -4283,16 +4283,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1045</v>
+        <v>101</v>
       </c>
       <c r="D214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -4310,7 +4310,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>49</v>
+        <v>1009</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -4346,7 +4346,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -4364,7 +4364,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -4400,7 +4400,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -4418,7 +4418,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -4436,7 +4436,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Washington D.C.</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>855</v>
+        <v>84</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Washington D.C.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>513</v>
+        <v>855</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -4472,16 +4472,16 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>11800</v>
+        <v>513</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -4490,16 +4490,16 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Ho Chi Minh City</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3268</v>
+        <v>11800</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
@@ -4508,18 +4508,36 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3268</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
           <t>Johannesburg</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>ZAF</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="C228" t="n">
         <v>3673</v>
       </c>
-      <c r="D227" t="b">
+      <c r="D228" t="b">
         <v>0</v>
       </c>
     </row>

--- a/1-data/1-research/cities.latest.xlsx
+++ b/1-data/1-research/cities.latest.xlsx
@@ -451,374 +451,374 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>original_dataset</t>
+          <t>priority</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1105</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>2194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>La Plata</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1117</v>
-      </c>
-      <c r="D3" t="b">
+        <v>2167</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12977</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
+        <v>2226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13076</v>
-      </c>
-      <c r="D5" t="b">
+        <v>2205</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13023</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
+        <v>2269</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11640</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
+        <v>2138</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13043</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
+        <v>2220</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Graz</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
+        <v>2219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Innsbruck</t>
+          <t>Rotterdam [The Hague]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2788</v>
-      </c>
-      <c r="D10" t="b">
+        <v>2123</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Linz</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2936</v>
-      </c>
-      <c r="D11" t="b">
+        <v>2183</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2885</v>
-      </c>
-      <c r="D12" t="b">
+        <v>2180</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3027</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
+        <v>2181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5528</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
+        <v>1105</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2133</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
+        <v>12977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2135</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
+        <v>13023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ghent</t>
+          <t>Perth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2112</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
+        <v>11640</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3381</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
+        <v>13043</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Graz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3196</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>El Alto [La Paz]</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>849</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
+        <v>3027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>940</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
+        <v>2135</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1242</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
+        <v>1361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1218</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -863,52 +863,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1361</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
+        <v>1303</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1420</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1303</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
+        <v>1017</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -917,1204 +917,1204 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>362</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
+        <v>875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Halifax</t>
+          <t>Bern</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1115</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
+        <v>2384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>834</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
+        <v>906</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
+        <v>931</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>989</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
+        <v>621</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>875</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
+        <v>2927</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>187</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
+        <v>2851</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>160</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
+        <v>2531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2392</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
+        <v>2518</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bern</t>
+          <t>Copenhagen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2384</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
+        <v>2749</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2314</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
+        <v>2051</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2463</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
+        <v>1701</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Tallinn</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>906</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
+        <v>3255</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Helsinki</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>931</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
+        <v>3244</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10687</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
+        <v>2228</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>621</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
+        <v>2046</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3036</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3120</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
+        <v>1912</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>York</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2927</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
+        <v>1874</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aachen</t>
+          <t>Budapest</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2245</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
+        <v>3193</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2734</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
+        <v>6845</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bamberg</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2716</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
+        <v>6955</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Dublin</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2851</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
+        <v>1656</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2432</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
+        <v>2253</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2439</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
+        <v>3269</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2417</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brunswick</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>MYS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2641</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
+        <v>11139</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chemnitz</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2852</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
+        <v>2493</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2310</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
+        <v>13129</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Constance</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2549</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
+        <v>13121</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2916</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
+        <v>3216</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2461</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
+        <v>1551</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Gothenburg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2276</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
+        <v>2682</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dresden</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2887</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
+        <v>2973</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2288</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Erfurt</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2713</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Erlangen</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2733</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Flensburg</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frankfurt am Main</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2445</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
+        <v>945</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Freiburg im Breisgau</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2408</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
+        <v>898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gera</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2799</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Görlitz</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2942</v>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Halle (Saale)</t>
+          <t>La Plata</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2782</v>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
+        <v>1117</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2531</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
+        <v>13076</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Innsbruck</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2376</v>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
+        <v>2788</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Heilbronn</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2527</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
+        <v>2936</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jena</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2757</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
+        <v>2885</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Baku</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2390</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
+        <v>5528</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2441</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
+        <v>2133</v>
+      </c>
+      <c r="D75" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Kassel</t>
+          <t>Ghent</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2524</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
+        <v>2112</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kiel</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
+        <v>3381</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Koblenz</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BIH</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2369</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
+        <v>3196</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>El Alto [La Paz]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2806</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
+        <v>849</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lübeck</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2630</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
+        <v>940</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2748</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
+        <v>1242</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2442</v>
-      </c>
-      <c r="D82" t="b">
-        <v>0</v>
+        <v>1218</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Halifax</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
+        <v>1115</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mönchengladbach</t>
+          <t>London</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2272</v>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
+        <v>834</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2359</v>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
+        <v>989</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nuremberg</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2730</v>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Oldenburg</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2395</v>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2389</v>
-      </c>
-      <c r="D88" t="b">
-        <v>0</v>
+        <v>2392</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2448</v>
-      </c>
-      <c r="D89" t="b">
-        <v>0</v>
+        <v>2314</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Potsdam</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2849</v>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
+        <v>2463</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
+        <v>10687</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Reinbek</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2584</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
+        <v>3036</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rostock</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2753</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Saarbruecken</t>
+          <t>Aachen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2325</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
+        <v>2245</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2141,16 +2141,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2514</v>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
+        <v>2734</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Bamberg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2637</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
+        <v>2716</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wiesbaden</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2423</v>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
+        <v>2432</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wuppertal</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2195,16 +2195,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2317</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
+        <v>2439</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Würzburg</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2213,1816 +2213,1816 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
+        <v>2417</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Brunswick</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2518</v>
-      </c>
-      <c r="D100" t="b">
-        <v>1</v>
+        <v>2641</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chemnitz</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2749</v>
-      </c>
-      <c r="D101" t="b">
-        <v>1</v>
+        <v>2852</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3751</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
+        <v>2310</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3902</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
+        <v>2549</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2051</v>
-      </c>
-      <c r="D104" t="b">
-        <v>1</v>
+        <v>2916</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1701</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
+        <v>2461</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Palma de Mallorca</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2076</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
+        <v>2276</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Dresden</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3255</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
+        <v>2887</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3244</v>
-      </c>
-      <c r="D108" t="b">
-        <v>1</v>
+        <v>2288</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Erfurt</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1897</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
+        <v>2713</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand</t>
+          <t>Erlangen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2094</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
+        <v>2733</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Colmar</t>
+          <t>Flensburg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2372</v>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
+        <v>2474</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Frankfurt am Main</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2186</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
+        <v>2445</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Freiburg im Breisgau</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2228</v>
-      </c>
-      <c r="D113" t="b">
-        <v>1</v>
+        <v>2408</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Gera</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
+        <v>2799</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Görlitz</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2046</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
+        <v>2942</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Halle (Saale)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2394</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
+        <v>2782</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
+        <v>2376</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Heilbronn</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D118" t="b">
-        <v>1</v>
+        <v>2527</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bristol</t>
+          <t>Jena</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
+        <v>2757</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
+        <v>2390</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
+        <v>2441</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Greenock</t>
+          <t>Kassel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
+        <v>2524</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Kiel</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1819</v>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
+        <v>2554</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Koblenz</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
+        <v>2369</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D125" t="b">
-        <v>1</v>
+        <v>2806</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Lübeck</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
+        <v>2630</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sheffield</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1838</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
+        <v>2748</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>York</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1874</v>
-      </c>
-      <c r="D128" t="b">
-        <v>1</v>
+        <v>2442</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3032</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
+        <v>2784</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Mönchengladbach</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3193</v>
-      </c>
-      <c r="D130" t="b">
-        <v>1</v>
+        <v>2272</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6845</v>
-      </c>
-      <c r="D131" t="b">
-        <v>1</v>
+        <v>2359</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Nuremberg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6955</v>
-      </c>
-      <c r="D132" t="b">
-        <v>1</v>
+        <v>2730</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Oldenburg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1593</v>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
+        <v>2395</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D134" t="b">
-        <v>1</v>
+        <v>2389</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Tehran</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5737</v>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
+        <v>2448</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Potsdam</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5314</v>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
+        <v>2849</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Reykjavik</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
+        <v>2818</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Turin</t>
+          <t>Reinbek</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2405</v>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
+        <v>2584</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Rostock</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>12964</v>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
+        <v>2753</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Phnom Penh</t>
+          <t>Saarbruecken</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>11478</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
+        <v>2325</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>12389</v>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
+        <v>2514</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4337</v>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
+        <v>2637</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kaunas</t>
+          <t>Wiesbaden</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3294</v>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
+        <v>2423</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Wuppertal</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2253</v>
-      </c>
-      <c r="D144" t="b">
-        <v>1</v>
+        <v>2317</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Würzburg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3269</v>
-      </c>
-      <c r="D145" t="b">
-        <v>1</v>
+        <v>2612</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>154</v>
-      </c>
-      <c r="D146" t="b">
-        <v>1</v>
+        <v>3751</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Timbuktu</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1717</v>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
+        <v>3902</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Ulaanbaatar</t>
+          <t>Palma de Mallorca</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>9602</v>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
+        <v>2076</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kuala Lumpur</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>11139</v>
-      </c>
-      <c r="D149" t="b">
-        <v>1</v>
+        <v>1897</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Abuna</t>
+          <t>Clermont-Ferrand</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2714</v>
-      </c>
-      <c r="D150" t="b">
-        <v>0</v>
+        <v>2094</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Awka</t>
+          <t>Colmar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2522</v>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
+        <v>2372</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2681</v>
-      </c>
-      <c r="D152" t="b">
-        <v>0</v>
+        <v>2186</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2194</v>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
+        <v>2130</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2167</v>
-      </c>
-      <c r="D154" t="b">
-        <v>1</v>
+        <v>2394</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2226</v>
-      </c>
-      <c r="D155" t="b">
-        <v>1</v>
+        <v>2017</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Bristol</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2205</v>
-      </c>
-      <c r="D156" t="b">
-        <v>1</v>
+        <v>1771</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2269</v>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
+        <v>1965</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2138</v>
-      </c>
-      <c r="D158" t="b">
-        <v>1</v>
+        <v>1749</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Greenock</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2220</v>
-      </c>
-      <c r="D159" t="b">
-        <v>0</v>
+        <v>1699</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2219</v>
-      </c>
-      <c r="D160" t="b">
-        <v>1</v>
+        <v>1819</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rotterdam [The Hague]</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2123</v>
-      </c>
-      <c r="D161" t="b">
-        <v>1</v>
+        <v>1751</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2183</v>
-      </c>
-      <c r="D162" t="b">
-        <v>0</v>
+        <v>1780</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Sheffield</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2180</v>
-      </c>
-      <c r="D163" t="b">
-        <v>1</v>
+        <v>1838</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2181</v>
-      </c>
-      <c r="D164" t="b">
-        <v>1</v>
+        <v>3032</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Cork</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2493</v>
-      </c>
-      <c r="D165" t="b">
-        <v>1</v>
+        <v>1593</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tehran</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2429</v>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
+        <v>5737</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Baghdad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>13129</v>
-      </c>
-      <c r="D167" t="b">
-        <v>1</v>
+        <v>5314</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Reykjavik</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>13121</v>
-      </c>
-      <c r="D168" t="b">
-        <v>1</v>
+        <v>1510</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Turin</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>723</v>
-      </c>
-      <c r="D169" t="b">
-        <v>0</v>
+        <v>2405</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>528</v>
-      </c>
-      <c r="D170" t="b">
-        <v>0</v>
+        <v>12964</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Gdansk</t>
+          <t>Phnom Penh</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3060</v>
-      </c>
-      <c r="D171" t="b">
-        <v>0</v>
+        <v>11478</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3134</v>
-      </c>
-      <c r="D172" t="b">
-        <v>0</v>
+        <v>12389</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Krakow</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3205</v>
-      </c>
-      <c r="D173" t="b">
-        <v>0</v>
+        <v>4337</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lodz</t>
+          <t>Kaunas</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3153</v>
-      </c>
-      <c r="D174" t="b">
-        <v>0</v>
+        <v>3294</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Poznan</t>
+          <t>Timbuktu</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3012</v>
-      </c>
-      <c r="D175" t="b">
-        <v>0</v>
+        <v>1717</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Szczecin</t>
+          <t>Ulaanbaatar</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2907</v>
-      </c>
-      <c r="D176" t="b">
-        <v>0</v>
+        <v>9602</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Abuna</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3216</v>
-      </c>
-      <c r="D177" t="b">
-        <v>1</v>
+        <v>2714</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
+          <t>Awka</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3031</v>
-      </c>
-      <c r="D178" t="b">
-        <v>0</v>
+        <v>2522</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1551</v>
-      </c>
-      <c r="D179" t="b">
-        <v>1</v>
+        <v>2681</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4351</v>
-      </c>
-      <c r="D180" t="b">
-        <v>0</v>
+        <v>2429</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3675</v>
-      </c>
-      <c r="D181" t="b">
-        <v>0</v>
+        <v>723</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Lima</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3396</v>
-      </c>
-      <c r="D182" t="b">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Gdansk</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>11498</v>
-      </c>
-      <c r="D183" t="b">
-        <v>0</v>
+        <v>3060</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ljubljana</t>
+          <t>Katowice</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2965</v>
-      </c>
-      <c r="D184" t="b">
-        <v>0</v>
+        <v>3134</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Krakow</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2682</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
+        <v>3205</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Malmö</t>
+          <t>Lodz</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2798</v>
-      </c>
-      <c r="D186" t="b">
-        <v>0</v>
+        <v>3153</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Poznan</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2973</v>
-      </c>
-      <c r="D187" t="b">
-        <v>1</v>
+        <v>3012</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Szczecin</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>10715</v>
-      </c>
-      <c r="D188" t="b">
-        <v>0</v>
+        <v>2907</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Wroclaw</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3562</v>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
+        <v>3031</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3517</v>
-      </c>
-      <c r="D190" t="b">
-        <v>0</v>
+        <v>4351</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Montevideo</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
+        <v>3675</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>196</v>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
+        <v>3396</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>273</v>
-      </c>
-      <c r="D193" t="b">
-        <v>0</v>
+        <v>11498</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Ljubljana</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>644</v>
-      </c>
-      <c r="D194" t="b">
-        <v>0</v>
+        <v>2965</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Malmö</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D195" t="b">
-        <v>0</v>
+        <v>2798</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>277</v>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
+        <v>10715</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>634</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
+        <v>3562</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>323</v>
-      </c>
-      <c r="D198" t="b">
-        <v>1</v>
+        <v>3517</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Montevideo</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>40</v>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
+        <v>1138</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Albuquerque</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4031,16 +4031,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>272</v>
-      </c>
-      <c r="D200" t="b">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Eugene</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>82</v>
-      </c>
-      <c r="D201" t="b">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fort Collins</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4067,16 +4067,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>295</v>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
+        <v>644</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>315</v>
-      </c>
-      <c r="D203" t="b">
-        <v>1</v>
+        <v>1022</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4103,16 +4103,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>502</v>
-      </c>
-      <c r="D204" t="b">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>14</v>
-      </c>
-      <c r="D205" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4139,16 +4139,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>637</v>
-      </c>
-      <c r="D206" t="b">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Eugene</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>443</v>
-      </c>
-      <c r="D207" t="b">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Fort Collins</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4175,16 +4175,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>556</v>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>400</v>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>945</v>
-      </c>
-      <c r="D210" t="b">
-        <v>1</v>
+        <v>637</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>568</v>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4247,16 +4247,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>898</v>
-      </c>
-      <c r="D212" t="b">
-        <v>1</v>
+        <v>556</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4265,16 +4265,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>79</v>
-      </c>
-      <c r="D213" t="b">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>101</v>
-      </c>
-      <c r="D214" t="b">
-        <v>1</v>
+        <v>568</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="215">
@@ -4303,8 +4303,8 @@
       <c r="C215" t="n">
         <v>1045</v>
       </c>
-      <c r="D215" t="b">
-        <v>0</v>
+      <c r="D215" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="216">
@@ -4321,8 +4321,8 @@
       <c r="C216" t="n">
         <v>1009</v>
       </c>
-      <c r="D216" t="b">
-        <v>0</v>
+      <c r="D216" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="217">
@@ -4339,8 +4339,8 @@
       <c r="C217" t="n">
         <v>49</v>
       </c>
-      <c r="D217" t="b">
-        <v>0</v>
+      <c r="D217" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="218">
@@ -4357,8 +4357,8 @@
       <c r="C218" t="n">
         <v>10</v>
       </c>
-      <c r="D218" t="b">
-        <v>0</v>
+      <c r="D218" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="219">
@@ -4375,8 +4375,8 @@
       <c r="C219" t="n">
         <v>5</v>
       </c>
-      <c r="D219" t="b">
-        <v>0</v>
+      <c r="D219" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="220">
@@ -4393,8 +4393,8 @@
       <c r="C220" t="n">
         <v>6</v>
       </c>
-      <c r="D220" t="b">
-        <v>0</v>
+      <c r="D220" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="221">
@@ -4411,8 +4411,8 @@
       <c r="C221" t="n">
         <v>140</v>
       </c>
-      <c r="D221" t="b">
-        <v>0</v>
+      <c r="D221" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -4429,8 +4429,8 @@
       <c r="C222" t="n">
         <v>34</v>
       </c>
-      <c r="D222" t="b">
-        <v>0</v>
+      <c r="D222" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4447,8 +4447,8 @@
       <c r="C223" t="n">
         <v>84</v>
       </c>
-      <c r="D223" t="b">
-        <v>0</v>
+      <c r="D223" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="224">
@@ -4465,8 +4465,8 @@
       <c r="C224" t="n">
         <v>855</v>
       </c>
-      <c r="D224" t="b">
-        <v>0</v>
+      <c r="D224" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="225">
@@ -4483,8 +4483,8 @@
       <c r="C225" t="n">
         <v>513</v>
       </c>
-      <c r="D225" t="b">
-        <v>0</v>
+      <c r="D225" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="226">
@@ -4501,8 +4501,8 @@
       <c r="C226" t="n">
         <v>11800</v>
       </c>
-      <c r="D226" t="b">
-        <v>0</v>
+      <c r="D226" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="227">
@@ -4519,8 +4519,8 @@
       <c r="C227" t="n">
         <v>3268</v>
       </c>
-      <c r="D227" t="b">
-        <v>0</v>
+      <c r="D227" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="228">
@@ -4537,8 +4537,8 @@
       <c r="C228" t="n">
         <v>3673</v>
       </c>
-      <c r="D228" t="b">
-        <v>0</v>
+      <c r="D228" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/1-data/1-research/cities.latest.xlsx
+++ b/1-data/1-research/cities.latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="292">
   <si>
     <t>city_name</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>Trnava</t>
+  </si>
+  <si>
+    <t>SVK</t>
   </si>
   <si>
     <t>Amsterdam</t>
@@ -948,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -961,9 +967,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1279,13 +1282,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,43 +1302,43 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
+        <v>3101</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>2167</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2226</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1343,13 +1346,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>2269</v>
+        <v>2205</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1357,13 +1360,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>2138</v>
+        <v>2269</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>2220</v>
+        <v>2138</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1385,13 +1388,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1399,13 +1402,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>2123</v>
+        <v>2219</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1413,13 +1416,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>2183</v>
+        <v>2123</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1427,13 +1430,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1441,10 +1444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>2181</v>
@@ -1455,10 +1458,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>2194</v>
@@ -1469,10 +1472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>1105</v>
@@ -1483,10 +1486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>12977</v>
@@ -1497,10 +1500,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>13023</v>
@@ -1511,10 +1514,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>11640</v>
@@ -1525,10 +1528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>13043</v>
@@ -1539,52 +1542,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>3000</v>
       </c>
       <c r="D19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>3027</v>
       </c>
       <c r="D20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>2135</v>
       </c>
       <c r="D21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>1361</v>
@@ -1595,10 +1598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <v>1420</v>
@@ -1609,10 +1612,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>362</v>
@@ -1623,10 +1626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>1017</v>
@@ -1637,10 +1640,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>875</v>
@@ -1651,24 +1654,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>2384</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>906</v>
@@ -1679,10 +1682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>931</v>
@@ -1693,10 +1696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
         <v>621</v>
@@ -1705,222 +1708,222 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
         <v>2927</v>
       </c>
       <c r="D31" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2">
         <v>2851</v>
       </c>
       <c r="D32" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
         <v>2531</v>
       </c>
       <c r="D33" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
         <v>2518</v>
       </c>
       <c r="D34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
         <v>2749</v>
       </c>
       <c r="D35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2">
         <v>2051</v>
       </c>
       <c r="D36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
         <v>1701</v>
       </c>
       <c r="D37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
         <v>3255</v>
       </c>
       <c r="D38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2">
         <v>3244</v>
       </c>
       <c r="D39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2">
         <v>2228</v>
       </c>
       <c r="D40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2">
         <v>2046</v>
       </c>
       <c r="D41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2">
         <v>1800</v>
       </c>
       <c r="D42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2">
         <v>1912</v>
       </c>
       <c r="D43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C44" s="2">
         <v>1874</v>
       </c>
       <c r="D44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2">
         <v>3193</v>
       </c>
       <c r="D45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2">
         <v>6845</v>
@@ -1931,10 +1934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2">
         <v>6955</v>
@@ -1945,52 +1948,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2">
         <v>1656</v>
       </c>
       <c r="D48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2">
         <v>2253</v>
       </c>
       <c r="D49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2">
         <v>3269</v>
       </c>
       <c r="D50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C51" s="2">
         <v>154</v>
@@ -2001,10 +2004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>11139</v>
@@ -2015,24 +2018,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2">
         <v>2493</v>
       </c>
       <c r="D53" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" s="2">
         <v>13129</v>
@@ -2043,10 +2046,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2">
         <v>13121</v>
@@ -2057,66 +2060,66 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2">
         <v>3216</v>
       </c>
       <c r="D56" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2">
         <v>1551</v>
       </c>
       <c r="D57" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2">
         <v>2682</v>
       </c>
       <c r="D58" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2">
         <v>2973</v>
       </c>
       <c r="D59" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2">
         <v>634</v>
@@ -2127,10 +2130,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2">
         <v>323</v>
@@ -2141,10 +2144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C62" s="2">
         <v>315</v>
@@ -2155,10 +2158,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2">
         <v>14</v>
@@ -2169,10 +2172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2">
         <v>945</v>
@@ -2183,10 +2186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2">
         <v>898</v>
@@ -2197,10 +2200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2">
         <v>79</v>
@@ -2211,10 +2214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2">
         <v>101</v>
@@ -2225,10 +2228,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2">
         <v>1303</v>
@@ -2239,24 +2242,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2">
         <v>2083</v>
       </c>
       <c r="D69" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
         <v>1117</v>
@@ -2267,10 +2270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2">
         <v>13076</v>
@@ -2281,24 +2284,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
         <v>2788</v>
       </c>
       <c r="D72" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C73" s="2">
         <v>2936</v>
@@ -2309,10 +2312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C74" s="2">
         <v>2885</v>
@@ -2323,10 +2326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2">
         <v>5528</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C76" s="2">
         <v>2133</v>
@@ -2351,10 +2354,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2">
         <v>2112</v>
@@ -2365,10 +2368,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2">
         <v>3381</v>
@@ -2379,10 +2382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2">
         <v>3196</v>
@@ -2393,10 +2396,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2">
         <v>849</v>
@@ -2407,10 +2410,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2">
         <v>940</v>
@@ -2421,10 +2424,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2">
         <v>1242</v>
@@ -2435,10 +2438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C83" s="2">
         <v>1218</v>
@@ -2449,10 +2452,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C84" s="2">
         <v>1115</v>
@@ -2463,10 +2466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2">
         <v>834</v>
@@ -2477,10 +2480,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C86" s="2">
         <v>989</v>
@@ -2491,10 +2494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87" s="2">
         <v>187</v>
@@ -2505,10 +2508,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C88" s="2">
         <v>160</v>
@@ -2519,10 +2522,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2">
         <v>2392</v>
@@ -2533,10 +2536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2">
         <v>2314</v>
@@ -2547,10 +2550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2">
         <v>2463</v>
@@ -2561,10 +2564,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2">
         <v>10687</v>
@@ -2575,10 +2578,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2">
         <v>3036</v>
@@ -2589,10 +2592,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2">
         <v>3120</v>
@@ -2603,10 +2606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C95" s="2">
         <v>2245</v>
@@ -2617,10 +2620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2">
         <v>2734</v>
@@ -2631,10 +2634,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C97" s="2">
         <v>2716</v>
@@ -2645,10 +2648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2">
         <v>2432</v>
@@ -2659,10 +2662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2">
         <v>2439</v>
@@ -2673,10 +2676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C100" s="2">
         <v>2417</v>
@@ -2687,10 +2690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C101" s="2">
         <v>2641</v>
@@ -2701,10 +2704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2">
         <v>2852</v>
@@ -2715,10 +2718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2">
         <v>2310</v>
@@ -2729,10 +2732,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2">
         <v>2549</v>
@@ -2743,10 +2746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2">
         <v>2916</v>
@@ -2757,10 +2760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2">
         <v>2461</v>
@@ -2771,10 +2774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2">
         <v>2276</v>
@@ -2785,10 +2788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2">
         <v>2887</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2">
         <v>2288</v>
@@ -2813,10 +2816,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2">
         <v>2713</v>
@@ -2827,10 +2830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2">
         <v>2733</v>
@@ -2841,10 +2844,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2">
         <v>2474</v>
@@ -2855,10 +2858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2">
         <v>2445</v>
@@ -2869,10 +2872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2">
         <v>2408</v>
@@ -2883,10 +2886,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C115" s="2">
         <v>2799</v>
@@ -2897,10 +2900,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2">
         <v>2942</v>
@@ -2911,10 +2914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2">
         <v>2782</v>
@@ -2925,10 +2928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C118" s="2">
         <v>2376</v>
@@ -2939,10 +2942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2">
         <v>2527</v>
@@ -2953,10 +2956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2">
         <v>2757</v>
@@ -2967,10 +2970,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C121" s="2">
         <v>2390</v>
@@ -2981,10 +2984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2">
         <v>2441</v>
@@ -2995,10 +2998,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C123" s="2">
         <v>2524</v>
@@ -3009,10 +3012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2">
         <v>2554</v>
@@ -3023,10 +3026,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C125" s="2">
         <v>2369</v>
@@ -3037,10 +3040,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2">
         <v>2806</v>
@@ -3051,10 +3054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2">
         <v>2630</v>
@@ -3065,10 +3068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2">
         <v>2748</v>
@@ -3079,10 +3082,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C129" s="2">
         <v>2442</v>
@@ -3093,10 +3096,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2">
         <v>2784</v>
@@ -3107,10 +3110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2">
         <v>2272</v>
@@ -3121,10 +3124,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2">
         <v>2359</v>
@@ -3135,10 +3138,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2">
         <v>2730</v>
@@ -3149,10 +3152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2">
         <v>2395</v>
@@ -3163,10 +3166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C135" s="2">
         <v>2389</v>
@@ -3177,10 +3180,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2">
         <v>2448</v>
@@ -3191,10 +3194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2">
         <v>2849</v>
@@ -3205,10 +3208,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C138" s="2">
         <v>2818</v>
@@ -3219,10 +3222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C139" s="2">
         <v>2584</v>
@@ -3233,10 +3236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2">
         <v>2753</v>
@@ -3247,10 +3250,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2">
         <v>2325</v>
@@ -3261,10 +3264,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2">
         <v>2514</v>
@@ -3275,10 +3278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C143" s="2">
         <v>2637</v>
@@ -3289,10 +3292,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2">
         <v>2423</v>
@@ -3303,10 +3306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C145" s="2">
         <v>2317</v>
@@ -3317,10 +3320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C146" s="2">
         <v>2612</v>
@@ -3331,10 +3334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C147" s="2">
         <v>3751</v>
@@ -3345,10 +3348,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C148" s="2">
         <v>3902</v>
@@ -3359,10 +3362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C149" s="2">
         <v>2076</v>
@@ -3373,10 +3376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2">
         <v>1897</v>
@@ -3387,10 +3390,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C151" s="2">
         <v>2094</v>
@@ -3401,10 +3404,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C152" s="2">
         <v>2372</v>
@@ -3415,10 +3418,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C153" s="2">
         <v>2186</v>
@@ -3429,10 +3432,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2">
         <v>2130</v>
@@ -3443,10 +3446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C155" s="2">
         <v>2394</v>
@@ -3457,10 +3460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C156" s="2">
         <v>2017</v>
@@ -3471,10 +3474,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C157" s="2">
         <v>1771</v>
@@ -3485,10 +3488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2">
         <v>1965</v>
@@ -3499,10 +3502,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2">
         <v>1749</v>
@@ -3513,10 +3516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C160" s="2">
         <v>1699</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C161" s="2">
         <v>1819</v>
@@ -3541,10 +3544,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C162" s="2">
         <v>1751</v>
@@ -3555,10 +3558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2">
         <v>1780</v>
@@ -3569,10 +3572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2">
         <v>1838</v>
@@ -3583,10 +3586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C165" s="2">
         <v>3032</v>
@@ -3597,10 +3600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C166" s="2">
         <v>1593</v>
@@ -3611,10 +3614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C167" s="2">
         <v>5737</v>
@@ -3625,10 +3628,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C168" s="2">
         <v>5314</v>
@@ -3639,10 +3642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C169" s="2">
         <v>1510</v>
@@ -3653,10 +3656,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C170" s="2">
         <v>2405</v>
@@ -3667,10 +3670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C171" s="2">
         <v>12964</v>
@@ -3681,10 +3684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C172" s="2">
         <v>11478</v>
@@ -3695,10 +3698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C173" s="2">
         <v>12389</v>
@@ -3709,10 +3712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C174" s="2">
         <v>4337</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
       <c r="A175" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C175" s="2">
         <v>3294</v>
@@ -3737,10 +3740,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
       <c r="A176" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C176" s="2">
         <v>1717</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C177" s="2">
         <v>9602</v>
@@ -3765,10 +3768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C178" s="2">
         <v>2714</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C179" s="2">
         <v>2522</v>
@@ -3793,10 +3796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C180" s="2">
         <v>2681</v>
@@ -3807,10 +3810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C181" s="2">
         <v>2429</v>
@@ -3821,10 +3824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C182" s="2">
         <v>723</v>
@@ -3835,10 +3838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C183" s="2">
         <v>528</v>
@@ -3849,10 +3852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C184" s="2">
         <v>3060</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2">
         <v>3134</v>
@@ -3877,10 +3880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C186" s="2">
         <v>3205</v>
@@ -3891,10 +3894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C187" s="2">
         <v>3153</v>
@@ -3905,10 +3908,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C188" s="2">
         <v>3012</v>
@@ -3919,10 +3922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C189" s="2">
         <v>2907</v>
@@ -3933,10 +3936,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C190" s="2">
         <v>3031</v>
@@ -3947,10 +3950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C191" s="2">
         <v>4351</v>
@@ -3961,10 +3964,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C192" s="2">
         <v>3675</v>
@@ -3975,10 +3978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C193" s="2">
         <v>3396</v>
@@ -3989,10 +3992,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
       <c r="A194" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C194" s="2">
         <v>11498</v>
@@ -4003,10 +4006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
       <c r="A195" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C195" s="2">
         <v>2965</v>
@@ -4017,10 +4020,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
       <c r="A196" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C196" s="2">
         <v>2798</v>
@@ -4031,10 +4034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
       <c r="A197" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C197" s="2">
         <v>10715</v>
@@ -4045,10 +4048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
       <c r="A198" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C198" s="2">
         <v>3562</v>
@@ -4059,10 +4062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
       <c r="A199" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C199" s="2">
         <v>3517</v>
@@ -4073,10 +4076,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
       <c r="A200" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C200" s="2">
         <v>1138</v>
@@ -4087,10 +4090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
       <c r="A201" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C201" s="2">
         <v>196</v>
@@ -4101,10 +4104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
       <c r="A202" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C202" s="2">
         <v>273</v>
@@ -4115,10 +4118,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
       <c r="A203" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C203" s="2">
         <v>644</v>
@@ -4129,10 +4132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
       <c r="A204" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C204" s="2">
         <v>1022</v>
@@ -4143,10 +4146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
       <c r="A205" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C205" s="2">
         <v>277</v>
@@ -4157,10 +4160,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
       <c r="A206" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C206" s="2">
         <v>40</v>
@@ -4171,10 +4174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
       <c r="A207" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C207" s="2">
         <v>272</v>
@@ -4185,10 +4188,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
       <c r="A208" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C208" s="2">
         <v>82</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
       <c r="A209" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C209" s="2">
         <v>295</v>
@@ -4213,10 +4216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
       <c r="A210" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C210" s="2">
         <v>502</v>
@@ -4227,10 +4230,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
       <c r="A211" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C211" s="2">
         <v>637</v>
@@ -4241,10 +4244,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
       <c r="A212" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C212" s="2">
         <v>443</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
       <c r="A213" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C213" s="2">
         <v>556</v>
@@ -4269,10 +4272,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
       <c r="A214" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C214" s="2">
         <v>400</v>
@@ -4283,10 +4286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
       <c r="A215" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C215" s="2">
         <v>568</v>
@@ -4297,10 +4300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
       <c r="A216" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2">
         <v>1045</v>
@@ -4311,10 +4314,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
       <c r="A217" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C217" s="2">
         <v>1009</v>
@@ -4325,10 +4328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
       <c r="A218" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C218" s="2">
         <v>49</v>
@@ -4339,10 +4342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
       <c r="A219" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C219" s="2">
         <v>10</v>
@@ -4353,10 +4356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
       <c r="A220" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C220" s="2">
         <v>5</v>
@@ -4367,10 +4370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C221" s="2">
         <v>6</v>
@@ -4381,10 +4384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C222" s="2">
         <v>140</v>
@@ -4395,10 +4398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
       <c r="A223" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C223" s="2">
         <v>34</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
       <c r="A224" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C224" s="2">
         <v>84</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
       <c r="A225" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C225" s="2">
         <v>855</v>
@@ -4437,10 +4440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
       <c r="A226" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C226" s="2">
         <v>513</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
       <c r="A227" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C227" s="2">
         <v>11800</v>
@@ -4465,10 +4468,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
       <c r="A228" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C228" s="2">
         <v>3268</v>
@@ -4479,10 +4482,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
       <c r="A229" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C229" s="2">
         <v>3673</v>
@@ -4494,8 +4497,8 @@
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
